--- a/password-attacks/default-password-list.xlsx
+++ b/password-attacks/default-password-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12560"/>
+    <workbookView windowWidth="28800" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="常见设备默认口令" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443">
   <si>
     <t>常见默认口令清单</t>
   </si>
@@ -907,6 +907,30 @@
     <t>Centos 7系统</t>
   </si>
   <si>
+    <t>azkaban系统</t>
+  </si>
+  <si>
+    <t>azkaban</t>
+  </si>
+  <si>
+    <t>zeppelin</t>
+  </si>
+  <si>
+    <t>lepus天兔数据监控系统</t>
+  </si>
+  <si>
+    <t>admin/Lepusadmin</t>
+  </si>
+  <si>
+    <t>guest/123456</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>axis2</t>
+  </si>
+  <si>
     <t>常见服务默认口令清单</t>
   </si>
   <si>
@@ -1454,9 +1478,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1511,7 +1535,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1526,37 +1578,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,14 +1601,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1585,39 +1616,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1631,24 +1640,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,6 +1658,29 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1698,7 +1722,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,13 +1764,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,13 +1836,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,49 +1872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,67 +1884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,8 +2023,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2024,57 +2087,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,156 +2106,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2648,10 +2672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -4468,6 +4492,50 @@
       </c>
       <c r="D134" s="16" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="135" ht="17" spans="1:3">
+      <c r="A135" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="17" spans="1:3">
+      <c r="A137" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" ht="17" spans="1:3">
+      <c r="A138" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4529,7 +4597,7 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4537,10 +4605,10 @@
     </row>
     <row r="2" s="11" customFormat="1" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>2</v>
@@ -4557,21 +4625,21 @@
     </row>
     <row r="4" s="11" customFormat="1" ht="36" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B4" s="14">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="1:4">
       <c r="A5" s="15" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B5" s="15">
         <v>22</v>
@@ -4585,27 +4653,27 @@
     </row>
     <row r="6" s="11" customFormat="1" ht="34" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B6" s="15">
         <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" s="11" customFormat="1" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B7" s="15">
         <v>389</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>141</v>
@@ -4613,27 +4681,27 @@
     </row>
     <row r="8" s="11" customFormat="1" ht="34" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B8" s="15">
         <v>873</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="1:4">
       <c r="A9" s="15" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B9" s="15">
         <v>1433</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D9" s="15">
         <v>123456</v>
@@ -4641,105 +4709,105 @@
     </row>
     <row r="10" s="11" customFormat="1" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B10" s="15">
         <v>2601</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" ht="53" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B11" s="14">
         <v>3306</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" ht="51" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B12" s="15">
         <v>3389</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="34" spans="1:4">
       <c r="A13" s="15" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B13" s="15">
         <v>3690</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="88" spans="1:4">
       <c r="A14" s="14" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B14" s="14">
         <v>5432</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" ht="68" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B15" s="15">
         <v>6379</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" ht="68" spans="1:4">
       <c r="A16" s="15" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B16" s="15">
         <v>8080</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="1:4">
       <c r="A17" s="15" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B17" s="15">
         <v>8090</v>
@@ -4748,85 +4816,85 @@
         <v>12</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" ht="71" spans="1:4">
       <c r="A18" s="14" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B18" s="14">
         <v>11211</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" ht="53" spans="1:4">
       <c r="A19" s="14" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B19" s="14">
         <v>27017</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" s="11" customFormat="1" ht="118" spans="1:4">
       <c r="A20" s="15" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B20" s="15">
         <v>50000</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" ht="106" spans="1:4">
       <c r="A21" s="14" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" s="11" customFormat="1" ht="51" spans="1:4">
       <c r="A22" s="15" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" ht="51" spans="1:4">
       <c r="A23" s="15" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>12</v>
@@ -4837,10 +4905,10 @@
     </row>
     <row r="24" s="11" customFormat="1" ht="34" spans="1:4">
       <c r="A24" s="15" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>12</v>
@@ -4851,10 +4919,10 @@
     </row>
     <row r="25" s="11" customFormat="1" ht="34" spans="1:4">
       <c r="A25" s="15" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>12</v>
@@ -4899,10 +4967,10 @@
         <v>443</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" ht="18" spans="1:4">
@@ -4916,30 +4984,30 @@
         <v>12</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" s="11" customFormat="1" ht="18" spans="1:4">
       <c r="A30" s="14" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B30" s="14">
         <v>8080</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D30" s="14"/>
     </row>
     <row r="31" s="11" customFormat="1" ht="18" spans="1:4">
       <c r="A31" s="14" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B31" s="14">
         <v>2181</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D31" s="14"/>
     </row>
@@ -4978,1543 +5046,1543 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" ht="24" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>356</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" ht="24" spans="1:7">
       <c r="A7" s="9" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C7" s="9">
         <v>8060</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" ht="24" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C8" s="9">
         <v>8060</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C9" s="9">
         <v>8060</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C10" s="9">
         <v>8011</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C11" s="9">
         <v>8060</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" ht="36" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>371</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:7">
       <c r="A13" s="9" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:7">
       <c r="A17" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>382</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" ht="36" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" ht="24" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" ht="36" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" ht="24" spans="1:7">
       <c r="A32" s="9" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" ht="24" spans="1:7">
       <c r="A33" s="9" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="9" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="9" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="9" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" ht="36" spans="1:7">
       <c r="A39" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="9" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="9" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="9" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="9" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="9" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="9" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="9" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" ht="48" spans="1:7">
       <c r="A47" s="9" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" ht="24" spans="1:7">
       <c r="A48" s="9" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" ht="36" spans="1:7">
       <c r="A49" s="9" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="9" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="9" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="9" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" ht="24" spans="1:7">
       <c r="A53" s="9" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" ht="24" spans="1:7">
       <c r="A54" s="9" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" ht="24" spans="1:7">
       <c r="A55" s="9" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" ht="24" spans="1:7">
       <c r="A56" s="9" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" ht="24" spans="1:7">
       <c r="A57" s="9" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" ht="24" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" ht="36" spans="1:7">
       <c r="A60" s="9" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="9" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" ht="24" spans="1:7">
       <c r="A62" s="9" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="9" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="9" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="9" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="9" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="9" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
